--- a/data/disease_class.xlsx
+++ b/data/disease_class.xlsx
@@ -1,204 +1,220 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanggle-my.sharepoint.com/personal/phonedata_kanggle_onmicrosoft_com/Documents/XMU/likangguo/2022/11 COVID_impact_luoli/code_PHSM/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C38AD33000696FAAA8F4329D47BF08939259ED04" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F69F93-C07B-499A-8508-6B9433C8FC0E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diseasename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diseaselist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intestinal infectious diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甲肝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">戊肝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typhoid fever and paratyphoid fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">伤寒+副伤寒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute hemorrhagic conjunctivitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">急性出血性结膜炎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysentery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">痢疾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手足口病</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other infectious diarrhea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其它感染性腹泻病</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural focal disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brucellosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">布病</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dengue fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登革热</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">流行性出血热</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese encephalitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乙型脑炎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">疟疾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydatidosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">包虫病</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斑疹伤寒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood borne and sexually transmitted diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">艾滋病</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonorrhea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淋病</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乙肝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丙肝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syphilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">梅毒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory infectious disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertussis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百日咳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scarlet fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猩红热</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肺结核</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">流行性腮腺炎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">风疹</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>diseasename</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>diseaselist</t>
+  </si>
+  <si>
+    <t>Intestinal infectious diseases</t>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>甲肝</t>
+  </si>
+  <si>
+    <t>HEV</t>
+  </si>
+  <si>
+    <t>戊肝</t>
+  </si>
+  <si>
+    <t>伤寒+副伤寒</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>急性出血性结膜炎</t>
+  </si>
+  <si>
+    <t>Dysentery</t>
+  </si>
+  <si>
+    <t>痢疾</t>
+  </si>
+  <si>
+    <t>HFMD</t>
+  </si>
+  <si>
+    <t>手足口病</t>
+  </si>
+  <si>
+    <t>Other infectious diarrhea</t>
+  </si>
+  <si>
+    <t>其它感染性腹泻病</t>
+  </si>
+  <si>
+    <t>Natural focal disease</t>
+  </si>
+  <si>
+    <t>Brucellosis</t>
+  </si>
+  <si>
+    <t>布病</t>
+  </si>
+  <si>
+    <t>Dengue fever</t>
+  </si>
+  <si>
+    <t>登革热</t>
+  </si>
+  <si>
+    <t>HFRS</t>
+  </si>
+  <si>
+    <t>流行性出血热</t>
+  </si>
+  <si>
+    <t>Japanese encephalitis</t>
+  </si>
+  <si>
+    <t>乙型脑炎</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>疟疾</t>
+  </si>
+  <si>
+    <t>Hydatidosis</t>
+  </si>
+  <si>
+    <t>包虫病</t>
+  </si>
+  <si>
+    <t>Typhus</t>
+  </si>
+  <si>
+    <t>斑疹伤寒</t>
+  </si>
+  <si>
+    <t>Blood borne and sexually transmitted diseases</t>
+  </si>
+  <si>
+    <t>AIDS</t>
+  </si>
+  <si>
+    <t>艾滋病</t>
+  </si>
+  <si>
+    <t>Gonorrhea</t>
+  </si>
+  <si>
+    <t>淋病</t>
+  </si>
+  <si>
+    <t>HBV</t>
+  </si>
+  <si>
+    <t>乙肝</t>
+  </si>
+  <si>
+    <t>HCV</t>
+  </si>
+  <si>
+    <t>丙肝</t>
+  </si>
+  <si>
+    <t>Syphilis</t>
+  </si>
+  <si>
+    <t>梅毒</t>
+  </si>
+  <si>
+    <t>Respiratory infectious disease</t>
+  </si>
+  <si>
+    <t>Pertussis</t>
+  </si>
+  <si>
+    <t>百日咳</t>
+  </si>
+  <si>
+    <t>Scarlet fever</t>
+  </si>
+  <si>
+    <t>猩红热</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>肺结核</t>
+  </si>
+  <si>
+    <t>Mumps</t>
+  </si>
+  <si>
+    <t>流行性腮腺炎</t>
+  </si>
+  <si>
+    <t>Rubella</t>
+  </si>
+  <si>
+    <t>风疹</t>
+  </si>
+  <si>
+    <t>Typhoid and paratyphoid fever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,9 +242,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -510,14 +535,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -545,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -559,316 +589,317 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/disease_class.xlsx
+++ b/data/disease_class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanggle-my.sharepoint.com/personal/phonedata_kanggle_onmicrosoft_com/Documents/XMU/likangguo/2022/11 COVID_impact_luoli/code_PHSM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_C38AD33000696FAAA8F4329D47BF08939259ED04" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F69F93-C07B-499A-8508-6B9433C8FC0E}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_C38AD33000696FAAA8F4329D47BF08939259ED04" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E4BC46-0B82-4561-896C-E99911435AA2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>diseasename</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>流行性出血热</t>
-  </si>
-  <si>
-    <t>Japanese encephalitis</t>
   </si>
   <si>
     <t>乙型脑炎</t>
@@ -195,6 +189,14 @@
   </si>
   <si>
     <t>AHC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japanese encephalitis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,6 +257,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,367 +545,369 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>